--- a/Files/Madden24/IE/Season2/ExpectedSalary.xlsx
+++ b/Files/Madden24/IE/Season2/ExpectedSalary.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Season2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5895" documentId="13_ncr:1_{ADED6FFD-BF9D-425E-B0E9-69FF67D7C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77AD9955-CC36-4D01-AECE-27828B014B61}"/>
+  <xr:revisionPtr revIDLastSave="5929" documentId="13_ncr:1_{ADED6FFD-BF9D-425E-B0E9-69FF67D7C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C052F52-48A0-4F81-89C8-EB786851A99D}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="24" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$F$2:$F$97</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -160,6 +163,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,7 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200DA08-E509-45AF-AE2B-CB0FB74399A3}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -582,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>99</v>
@@ -599,7 +608,7 @@
         <v>80</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -694,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>92</v>
@@ -711,7 +720,7 @@
         <v>80</v>
       </c>
       <c r="C16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -806,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>99</v>
@@ -823,7 +832,7 @@
         <v>82</v>
       </c>
       <c r="C24">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -1086,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>99</v>
@@ -1103,7 +1112,7 @@
         <v>82</v>
       </c>
       <c r="C44">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -1114,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="1">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C45">
         <v>81</v>
@@ -1128,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1145,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1156,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>99</v>
@@ -1170,10 +1179,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -1184,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1201,7 +1210,7 @@
         <v>70</v>
       </c>
       <c r="C51">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1226,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <v>99</v>
@@ -1240,10 +1249,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1254,10 +1263,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1271,7 +1280,7 @@
         <v>70</v>
       </c>
       <c r="C56">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1296,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C58">
         <v>99</v>
@@ -1313,7 +1322,7 @@
         <v>84</v>
       </c>
       <c r="C59">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D59">
         <v>4</v>
